--- a/inst/ms/reading.xlsx
+++ b/inst/ms/reading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="-25980" yWindow="15640" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>Author</t>
   </si>
@@ -72,9 +72,6 @@
     <t>biocomplexity</t>
   </si>
   <si>
-    <t>Maintainance of biocomplexity (a diversity of life-history strategies) an important component of long-term sustainability; specifically, they show that not all sockeye in Bristol Bay respond similarly to the environment</t>
-  </si>
-  <si>
     <t>We believe that long-term sustainability is derived in large part from com- plementary patterns of productivity in different stock components; It would seem prudent to try to prevent loss of such stock components, including those that appear, at present, to be unproductive.</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>Defines response diversity; states that it's important to resilience; provides "adaptive capacity"</t>
   </si>
   <si>
-    <t>Liebhold</t>
-  </si>
-  <si>
-    <t>Spatial synchrony can occur because of: (1) dispersal between populations (2) Moran effect, (3) trophic interactions with other pops that are synchronous</t>
-  </si>
-  <si>
     <t>Moore</t>
   </si>
   <si>
@@ -190,6 +181,183 @@
   </si>
   <si>
     <t>Hodgson</t>
+  </si>
+  <si>
+    <t>"only 0.25% of the papers on conservation and/or management of salmonids list the keyword "metapopulation""</t>
+  </si>
+  <si>
+    <t>Levins</t>
+  </si>
+  <si>
+    <t>First paper to coin term metapopulation</t>
+  </si>
+  <si>
+    <t>Second paper to coin term metapopulation</t>
+  </si>
+  <si>
+    <t>Gilpin and Hanski</t>
+  </si>
+  <si>
+    <t>The book that set off metapopulation biology</t>
+  </si>
+  <si>
+    <t>Maintainance of biocomplexity (a diversity of life-history strategies) an important component of long-term sustainability; specifically, they show that not all sockeye in Bristol Bay respond similarly to the environment. And, fishing causes less variability than natural processes.</t>
+  </si>
+  <si>
+    <t>metapopulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterman et al. </t>
+  </si>
+  <si>
+    <t>Stewart et al.</t>
+  </si>
+  <si>
+    <t>2003a</t>
+  </si>
+  <si>
+    <t>from Schtickzelle: correlations between pops up to 175km apartnegative -.55 to 1.00 in survival</t>
+  </si>
+  <si>
+    <t>Isaak et al</t>
+  </si>
+  <si>
+    <t>Kindvall</t>
+  </si>
+  <si>
+    <t>(1) habitat heterogeneity can create different responses to the same conditions (for bush cricket metapopulations) and (2) extinction risk higher in homogenous habitats</t>
+  </si>
+  <si>
+    <t>environmental filter</t>
+  </si>
+  <si>
+    <t>(1) salmon metapops become more synchronized at low abundance and (2) dispersal unlikely to affect population dynamics unless abundance really low where it can synchronize</t>
+  </si>
+  <si>
+    <t>Liebhold et al.</t>
+  </si>
+  <si>
+    <t>Spatial synchrony can occur because of: (1) dispersal between populations (2) Moran effect, (3) trophic interactions with other pops that are synchronous; shared environment and dispersal more likely for closer pops</t>
+  </si>
+  <si>
+    <t>Quinn (book)</t>
+  </si>
+  <si>
+    <t>Main pacific salmon reference. One point: Because anadromous salmon pops spend time together in ocean, even if far apart in freshwater experience same environment in ocean, and so correlation may decay less than you'd think with distance</t>
+  </si>
+  <si>
+    <t>Hindar et al.</t>
+  </si>
+  <si>
+    <t>genetic variation</t>
+  </si>
+  <si>
+    <t>The genetic consequences of harvesting need to be assessed both at the levels of local populations and the metapopulation.</t>
+  </si>
+  <si>
+    <t>Waples</t>
+  </si>
+  <si>
+    <t>TO GET: effective size of fluctuating…</t>
+  </si>
+  <si>
+    <t>Cooper and Mangel</t>
+  </si>
+  <si>
+    <t>Dangerous to ignore metapopulation structure of salmon</t>
+  </si>
+  <si>
+    <t>Frankham</t>
+  </si>
+  <si>
+    <t>TO GET: inbreeding and extinction a threshold effect</t>
+  </si>
+  <si>
+    <t>Lande and Shannon</t>
+  </si>
+  <si>
+    <t>TO GET: the role of genetic variation in adaptation…</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>ESU</t>
+  </si>
+  <si>
+    <t>TO GET: defining 'evolutionarily significant units' for conservation TREE</t>
+  </si>
+  <si>
+    <t>Pulliam</t>
+  </si>
+  <si>
+    <t>sources and sinks</t>
+  </si>
+  <si>
+    <t>TO GET: sources, sinks, and population regulation</t>
+  </si>
+  <si>
+    <t>Ryman et al.</t>
+  </si>
+  <si>
+    <t>TO GET: protection of intraspecific biodiversity…</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>local adaptation</t>
+  </si>
+  <si>
+    <t>TO GET: a review of local adaptation in salmonidae</t>
+  </si>
+  <si>
+    <t>Defines ESUs</t>
+  </si>
+  <si>
+    <t>TO GET</t>
+  </si>
+  <si>
+    <t>Mace and Lande</t>
+  </si>
+  <si>
+    <t>TO GET: assessing extinction threats: towards a genetically secure population</t>
+  </si>
+  <si>
+    <t>Wang et al.</t>
+  </si>
+  <si>
+    <t>inbreeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO GET: salmonid inbreeding: a review </t>
+  </si>
+  <si>
+    <t>need to consider genetic effects of harvesting both at local and metapopulation level</t>
+  </si>
+  <si>
+    <t>Fahrig</t>
+  </si>
+  <si>
+    <t>habitat fragmentation</t>
+  </si>
+  <si>
+    <t>TO GET: effects of habitat fragementation on biodiversity</t>
+  </si>
+  <si>
+    <t>Hanski</t>
+  </si>
+  <si>
+    <t>TO GET: metapopulation dynamics: does it help to have more….</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>Anadromous salmon likely fulfill the 3 requirements to be defined as a metapopulation: discrete populations, some asynchrony; some dispersal. Useful concept, but, the concept is rarely used or tested. Main implications: (1) metapop dynamics can influence persistence or collapse (ecological time scale) and (2) evolution and adaptation (evolutionary time scale); dispersal likely just enough to "ensure recolonization of suitable habitat"; salmon tend to stray near their natal stream, although not necessarily those closest</t>
+  </si>
+  <si>
+    <t>Basically, we need to loosen up on "classical metapopulation theory" for it to be useful. Classical definition is rare and maybe not always applicable to conservation or empirical work</t>
   </si>
 </sst>
 </file>
@@ -564,18 +732,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="64.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.1640625" style="1" customWidth="1"/>
   </cols>
@@ -645,7 +813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -656,15 +824,15 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>2008</v>
@@ -673,12 +841,12 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>1997</v>
@@ -687,92 +855,101 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>1997</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>2007</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>1993</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>2011</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="135">
+      <c r="A12" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>2007</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>2000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>2003</v>
@@ -780,29 +957,29 @@
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>2003</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2">
         <v>2004</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>2010</v>
@@ -810,69 +987,358 @@
     </row>
     <row r="19" spans="1:6" ht="75">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>1972</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="90">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
         <v>1991</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>1968</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>2008</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2">
         <v>2002</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1969</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1970</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1991</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1995</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30">
+      <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1994</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1988</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1991</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="105">
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1991</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1998</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45">
+      <c r="A49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ms/reading.xlsx
+++ b/inst/ms/reading.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25980" yWindow="15640" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="164">
   <si>
     <t>Author</t>
   </si>
@@ -27,9 +28,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Topics</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -174,15 +172,6 @@
     <t>not read in full yet</t>
   </si>
   <si>
-    <t>Crozier</t>
-  </si>
-  <si>
-    <t>TO READ climate change impact on salmon</t>
-  </si>
-  <si>
-    <t>Hodgson</t>
-  </si>
-  <si>
     <t>"only 0.25% of the papers on conservation and/or management of salmonids list the keyword "metapopulation""</t>
   </si>
   <si>
@@ -285,9 +274,6 @@
     <t>ESU</t>
   </si>
   <si>
-    <t>TO GET: defining 'evolutionarily significant units' for conservation TREE</t>
-  </si>
-  <si>
     <t>Pulliam</t>
   </si>
   <si>
@@ -312,18 +298,9 @@
     <t>TO GET: a review of local adaptation in salmonidae</t>
   </si>
   <si>
-    <t>Defines ESUs</t>
-  </si>
-  <si>
-    <t>TO GET</t>
-  </si>
-  <si>
     <t>Mace and Lande</t>
   </si>
   <si>
-    <t>TO GET: assessing extinction threats: towards a genetically secure population</t>
-  </si>
-  <si>
     <t>Wang et al.</t>
   </si>
   <si>
@@ -342,9 +319,6 @@
     <t>habitat fragmentation</t>
   </si>
   <si>
-    <t>TO GET: effects of habitat fragementation on biodiversity</t>
-  </si>
-  <si>
     <t>Hanski</t>
   </si>
   <si>
@@ -358,16 +332,213 @@
   </si>
   <si>
     <t>Basically, we need to loosen up on "classical metapopulation theory" for it to be useful. Classical definition is rare and maybe not always applicable to conservation or empirical work</t>
+  </si>
+  <si>
+    <t>Cariveau et al.</t>
+  </si>
+  <si>
+    <t>response diversity</t>
+  </si>
+  <si>
+    <t>detected response diversity but didn't lead to stability of ecosystem services for pollinators</t>
+  </si>
+  <si>
+    <t>Highly cited</t>
+  </si>
+  <si>
+    <t>"The overriding purpose of defining ESUs to ensure that evolutionary heritage is recognized and protected and that the evolutionary potential inherent across the set of ESUs is maintained."  "MU s are the logical unit for population monitoring and demographic study."</t>
+  </si>
+  <si>
+    <t>"Habitat fragmentation is usually defined as a landscape-scale process involving both habitat loss and the breaking apart of habitat."</t>
+  </si>
+  <si>
+    <t>A (massive) review of the effects of habitat fragmentation on biodiversity. Habitat loss -&gt; "large, consistently negative effects on biodiversity". Fragmentation -&gt; weaker effects, could be positive or negative. So, measure these seprately.</t>
+  </si>
+  <si>
+    <t>Main first paper to carefully define ESU. "significant" refers to historical isolation and therefore has a "distinct potential". ESUs mostly relevant for longterm conservation (defining priorities and "setting strategy"). Defines Management Units (MU s) too. MU s more useful for short-term management... reflect current population structure and short-term management issues.</t>
+  </si>
+  <si>
+    <t>Defines ESUs (for purposes of salmon for ESA listings)</t>
+  </si>
+  <si>
+    <t>2 criteria: "substantially reproductively isolated from other conspecific population units" and "represent[s] an important component in the evolutionary lecagy of the species"; "isolation does not have to be absolute"</t>
+  </si>
+  <si>
+    <t>Define criteria for assessing extinction threat - useful if doing local extinction recording</t>
+  </si>
+  <si>
+    <t>extinction risk</t>
+  </si>
+  <si>
+    <t>climate-salmon</t>
+  </si>
+  <si>
+    <t>TO GET: Extinction risk from climate change</t>
+  </si>
+  <si>
+    <t>Thomas et al.</t>
+  </si>
+  <si>
+    <t>short-term adaptation to climate change may not keep pace with climate change - causing extinction</t>
+  </si>
+  <si>
+    <t>Stockwell</t>
+  </si>
+  <si>
+    <t>TO GET: "contemporary evolution" TREE</t>
+  </si>
+  <si>
+    <t>contemporary evolution to environmental forces - growing evidence of this</t>
+  </si>
+  <si>
+    <t>TO GET: Evolutionary responses by native species to major anthropogenic changes to their ecosystems: Pacific salmon
+in the Columbia River hydropower system</t>
+  </si>
+  <si>
+    <t>Waples et al.</t>
+  </si>
+  <si>
+    <t>Crozier et al. (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any "further decline in fitness significantly threatens" the persistence of Snake River spring/summer Chinook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McClure </t>
+  </si>
+  <si>
+    <t>again, Snake River Chinook threatened by any further decline in fitness</t>
+  </si>
+  <si>
+    <t>Crozier et al. (1)</t>
+  </si>
+  <si>
+    <t>Hutchings</t>
+  </si>
+  <si>
+    <t>phenotypic plasticity to environmental conditions is part of life-history diversity for salmonids</t>
+  </si>
+  <si>
+    <t>"we emphasize the interacting and cumulative effects of climate change across the life cycle"; "Life-history diversity in salmon reflects a combination of phenotypic plasticity in response to variable environmental conditions (Hutchings 2004) and local adaptation throughout the life cycle, across the complete suite of life history, morphological, physiological, and behavioral traits (Ricker 1972; Groot and Margolis 1991; Taylor 1991; Quinn 2005)."   "Local adaptation is facili- tated by strong natal homing that limits gene flow between populations in different selective environments."</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>McCullough</t>
+  </si>
+  <si>
+    <t>review of effects of warmer water on salmon</t>
+  </si>
+  <si>
+    <t>Materna</t>
+  </si>
+  <si>
+    <t>Donato et al.</t>
+  </si>
+  <si>
+    <t>much of salmon rearing habitat in (Snake River?) already exceeds optimal temperatures for salmonids</t>
+  </si>
+  <si>
+    <t>Hodgson and Quinn</t>
+  </si>
+  <si>
+    <t>thermal-diversity evolution</t>
+  </si>
+  <si>
+    <t>Beacham and Murray</t>
+  </si>
+  <si>
+    <t>Beacham and Withler</t>
+  </si>
+  <si>
+    <t>review of effects of warmer water on salmon;  from Crozier et al. 2008 (review (1)): upper limit of salmon adaption of about 23 deg Celcius</t>
+  </si>
+  <si>
+    <t>To read</t>
+  </si>
+  <si>
+    <t>To get</t>
+  </si>
+  <si>
+    <t>cited by Crozier et al. (1) 2008:  global average temperature will rise by X by the year 2100… and Pacific Northwest - assumed to be within that range - check!</t>
+  </si>
+  <si>
+    <t>Predicting differential effects of climate change at the population level with life-cycle models of spring Chinook salmon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(from Crozier et al. 2008 (1) - review): example of thermal tolerance diversity: lower survival of eggs and embryos, and reduced yolk "conversion efficiency" for coastal Chinook salmon than juveniles </t>
+  </si>
+  <si>
+    <t>(from Crozier et al. 2008 (1) review) greater tolerance to warmth for southern BC juvenile Chinook than northern BC pops</t>
+  </si>
+  <si>
+    <t>Topics / keywords</t>
+  </si>
+  <si>
+    <t>climate change impact on salmon; temperatures already approach lethal limits in XX.</t>
+  </si>
+  <si>
+    <t>Great review of expected evolutionary responses of salmon to climate change. Salmon life-history diversity is 2 part: (1) phenotypic plasticity to environment and (2) location adaptation throughout lifecycle. Main climate influence in freshwater: (1) changes in snow melt timing, (2) greater hydrologic extremes (droughts and floods more extreme), (3) higher temperatures of streams and watershed in general. In N Pacific Ocean warming impacts on salmon habitat: (1) rising temperature of upper ocean - increased stratification, (2) wind pattern changes, which affect upwelling of nutrients, (3) ocean acidification, which will impact plankton and those trophically linked. // Fitness effects of warmer water - various - behaviour inhibition, disease, reduced growth and development, increased energetic costs (they cite McCullough 1999 and Materna 2001, which are reviews). // Could also be thermal response diversity via differences in behaviour to reduce heat exposure (cite Berman and Quinn 1991, Togersen et al. 1991, Goniea et al. 2006) // Thermal diversity possible through disease resistence diversity with increased temperature. // Earlier migration over last century for Chinook and sockeye in Columbia over last century.</t>
+  </si>
+  <si>
+    <t>Hutchings, J. A. 2004. Norms of reaction and phenotypic plasticity in salmonid life histories. In A. P. Hendry, and S. Stearns, eds. Evolution Illuminated: Salmon and Their Relatives, pp. 154–176. Oxford University Press, New York.</t>
+  </si>
+  <si>
+    <t>Fullerton et al.</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>Kovach et al</t>
+  </si>
+  <si>
+    <t>Ando and Mallory</t>
+  </si>
+  <si>
+    <t>Sethi</t>
+  </si>
+  <si>
+    <t>Haak and Williams</t>
+  </si>
+  <si>
+    <t>Greene et al.</t>
+  </si>
+  <si>
+    <t>Ando and Hannah</t>
+  </si>
+  <si>
+    <t>Hilborn et al.</t>
+  </si>
+  <si>
+    <t>to read - CJFAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,19 +561,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="29">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,616 +962,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="82" style="2" customWidth="1"/>
+    <col min="8" max="8" width="76.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1997</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1991</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="195">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E9" s="3">
+        <v>127</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60">
+      <c r="A10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1968</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2011</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1991</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2008</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45">
+      <c r="A20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="120">
+      <c r="A24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1996</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1969</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1970</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2004</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1991</v>
+      </c>
+      <c r="E32" s="3">
+        <v>806</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
+      <c r="A35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1997</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="60">
+      <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1994</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1871</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="75">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1991</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1998</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30">
+      <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1993</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45">
+      <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="60">
-      <c r="A2" s="1" t="s">
+      <c r="B46" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="75">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1972</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30">
+      <c r="A49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45">
+      <c r="A50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2008</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="90">
+      <c r="A51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30">
+      <c r="A53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30">
+      <c r="A56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30">
+      <c r="A57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45">
+      <c r="A58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1991</v>
+      </c>
+      <c r="E58" s="3">
+        <v>540</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="90">
+      <c r="A59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30">
+      <c r="A60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30">
+      <c r="A61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="3">
         <v>2013</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2003</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1997</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1997</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1993</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="135">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2003</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2004</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="D61" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30">
+      <c r="A62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30">
+      <c r="A63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="3">
         <v>2010</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="75">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1972</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="90">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1991</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1968</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60">
-      <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2008</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2002</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1969</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1970</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1991</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2003</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1996</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45">
-      <c r="A36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1999</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60">
-      <c r="A38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1995</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30">
-      <c r="A39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1996</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30">
-      <c r="A40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1994</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30">
-      <c r="A41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1988</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1991</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="105">
-      <c r="A45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1991</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30">
-      <c r="A47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2003</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="45">
-      <c r="A49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>112</v>
+      <c r="D63" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30">
+      <c r="A64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30">
+      <c r="A65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30">
+      <c r="A66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30">
+      <c r="A67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45">
+      <c r="A68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H59">
+    <sortCondition ref="A2:A59"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
